--- a/speedTest/JU1/result.xlsx
+++ b/speedTest/JU1/result.xlsx
@@ -8,150 +8,136 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Reproduction-Copa\speedTest\JU1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B1C955-1DC0-4F75-8B4B-4E83CAECF70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8D2DC-A0F7-40EB-9E35-7E0303479E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.152" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.153" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.154" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.155" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.156" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.157" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.158" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.159" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.160" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.161" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.162" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.163" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.164" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.165" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.166" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.167" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$2:$L$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$N$2:$N$31</definedName>
     <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$AB$1</definedName>
     <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
     <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$D$1</definedName>
@@ -162,28 +148,28 @@
     <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$L$2:$L$31</definedName>
     <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$P$1</definedName>
     <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$P$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$R$1</definedName>
     <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$T$1</definedName>
     <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$T$2:$T$31</definedName>
     <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$X$1</definedName>
     <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Sheet1!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -354,37 +340,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.115</cx:f>
+        <cx:f>_xlchart.v1.73</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.117</cx:f>
+        <cx:f>_xlchart.v1.75</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.119</cx:f>
+        <cx:f>_xlchart.v1.77</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.121</cx:f>
+        <cx:f>_xlchart.v1.79</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.123</cx:f>
+        <cx:f>_xlchart.v1.81</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.125</cx:f>
+        <cx:f>_xlchart.v1.83</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.113</cx:f>
+        <cx:f>_xlchart.v1.71</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -394,7 +380,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7BE12D26-E403-480C-8836-520383CD9524}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.114</cx:f>
+              <cx:f>_xlchart.v1.72</cx:f>
               <cx:v>JUHbbr32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -407,7 +393,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5B3D47C9-8A82-4DA0-B056-45F2E2C193EE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:f>_xlchart.v1.74</cx:f>
               <cx:v>JUHbbrplus32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -420,7 +406,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{777231A4-F53A-40A0-B6C5-E632BDD4EB6A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:f>_xlchart.v1.76</cx:f>
               <cx:v>JUHcubic32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -433,7 +419,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3698E24D-E12B-401D-8101-E02689830278}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.120</cx:f>
+              <cx:f>_xlchart.v1.78</cx:f>
               <cx:v>JUHlotserver32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -446,7 +432,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A47BB096-CA3E-4908-8B6A-4D42C8CB7561}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.122</cx:f>
+              <cx:f>_xlchart.v1.80</cx:f>
               <cx:v>JUHnanqinlang32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -459,7 +445,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{985C8F4D-2C43-4E4F-9CA3-2FB82CBEED5A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.124</cx:f>
+              <cx:f>_xlchart.v1.82</cx:f>
               <cx:v>JUHreno32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -472,7 +458,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1425B788-954D-4729-8DFC-D7D9F9A8BB2D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.112</cx:f>
+              <cx:f>_xlchart.v1.70</cx:f>
               <cx:v>JUHtsunami32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -599,7 +585,301 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.127</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.129</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.131</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.133</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.137</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.139</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{CF6DD65F-1087-4707-BE7E-0E3ACEB8025A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:v>JUHbbr1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CA8DFA65-2E52-4B21-AFFD-6F5DC9A1A842}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:v>JUHbbrplus1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F7922DD1-CBA3-4DAF-8B08-0796E4899C48}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.130</cx:f>
+              <cx:v>JUHcubic1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4632499-F556-4955-8F09-520E9C78742C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.132</cx:f>
+              <cx:v>JUHlotserver1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{826DCD82-6FF2-42A1-A4E6-68F8BD6C2A6C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.134</cx:f>
+              <cx:v>JUHnanqinlang1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6E097473-F079-4916-AA38-D61E74A76AD8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:v>JUHreno1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FC82D64D-B600-4F83-A2EE-46BD859B587F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:v>JUHtsunami1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Different Congestion Control</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate/Mbps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1154,20 +1434,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>16327</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>519546</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>161637</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>64655</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1203,8 +1998,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4715492" y="1574963"/>
-              <a:ext cx="9623963" cy="5860310"/>
+              <a:off x="15016347" y="6223163"/>
+              <a:ext cx="8751126" cy="6088910"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="图表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34F52A6-8845-4484-8D1C-7CAB0F1897EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4735286" y="5769429"/>
+              <a:ext cx="9448800" cy="6346372"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1502,16 +2375,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB1" activeCellId="6" sqref="D1:D31 H1:H31 L1:L31 P1:P31 T1:T31 X1:X31 AB1:AB31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z1" activeCellId="6" sqref="B1:B31 F1:F31 J1:J31 N1:N31 R1:R31 V1:V31 Z1:Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="29" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1597,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>33.1</v>
       </c>
@@ -1683,7 +2556,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>94.4</v>
       </c>
@@ -1769,7 +2642,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>231</v>
       </c>
@@ -1855,7 +2728,7 @@
         <v>1904.64</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>220</v>
       </c>
@@ -1941,7 +2814,7 @@
         <v>1904.64</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>231</v>
       </c>
@@ -2027,7 +2900,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>231</v>
       </c>
@@ -2113,7 +2986,7 @@
         <v>1863.68</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>220</v>
       </c>
@@ -2199,7 +3072,7 @@
         <v>1904.64</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>220</v>
       </c>
@@ -2285,7 +3158,7 @@
         <v>1904.64</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>231</v>
       </c>
@@ -2371,7 +3244,7 @@
         <v>1894.4</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>231</v>
       </c>
@@ -2457,7 +3330,7 @@
         <v>1914.88</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>220</v>
       </c>
@@ -2543,7 +3416,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>220</v>
       </c>
@@ -2629,7 +3502,7 @@
         <v>1873.92</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>231</v>
       </c>
@@ -2715,7 +3588,7 @@
         <v>1904.64</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>220</v>
       </c>
@@ -2801,7 +3674,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>168</v>
       </c>
@@ -2887,7 +3760,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>220</v>
       </c>
@@ -2973,7 +3846,7 @@
         <v>1925.12</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>231</v>
       </c>
@@ -3059,7 +3932,7 @@
         <v>1894.4</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>231</v>
       </c>
@@ -3145,7 +4018,7 @@
         <v>1894.4</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>220</v>
       </c>
@@ -3231,7 +4104,7 @@
         <v>1863.68</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>220</v>
       </c>
@@ -3317,7 +4190,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>231</v>
       </c>
@@ -3403,7 +4276,7 @@
         <v>1904.64</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>231</v>
       </c>
@@ -3489,7 +4362,7 @@
         <v>1689.6</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>220</v>
       </c>
@@ -3575,7 +4448,7 @@
         <v>1740.8</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>220</v>
       </c>
@@ -3661,7 +4534,7 @@
         <v>1894.4</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>220</v>
       </c>
@@ -3747,7 +4620,7 @@
         <v>1832.96</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>241</v>
       </c>
@@ -3833,7 +4706,7 @@
         <v>1843.2</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>231</v>
       </c>
@@ -3919,7 +4792,7 @@
         <v>1894.4</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>220</v>
       </c>
@@ -4005,7 +4878,7 @@
         <v>1853.44</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>168</v>
       </c>
@@ -4091,7 +4964,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>220</v>
       </c>
@@ -4177,7 +5050,7 @@
         <v>1884.16</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>211</v>
       </c>
@@ -4263,7 +5136,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>211</v>
       </c>
